--- a/FAERS ID_AE/Fight_in_school.xlsx
+++ b/FAERS ID_AE/Fight_in_school.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="505">
   <si>
     <t>Case ID</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Multiple Allergies</t>
   </si>
   <si>
-    <t>Mood Altered;Suicidal Ideation;Screaming;Abnormal Behaviour;Aggression;Fight In School;Nightmare</t>
+    <t>Mood Altered;Suicidal Ideation;Screaming;Fight In School;Abnormal Behaviour;Nightmare;Aggression</t>
   </si>
   <si>
     <t>Other Outcomes</t>
@@ -142,7 +142,7 @@
     <t>Attention Deficit/Hyperactivity Disorder</t>
   </si>
   <si>
-    <t>Aggression;Product Substitution Issue;Fight In School</t>
+    <t>Fight In School;Product Substitution Issue;Aggression</t>
   </si>
   <si>
     <t>Male</t>
@@ -160,7 +160,7 @@
     <t>30.6 KG</t>
   </si>
   <si>
-    <t>Zoloft;Somatropin;Melatonin;Concerta</t>
+    <t>Melatonin;Concerta;Zoloft;Somatropin</t>
   </si>
   <si>
     <t>Emflaza</t>
@@ -172,7 +172,7 @@
     <t>Duchenne Muscular Dystrophy;Hypersensitivity;Product Used For Unknown Indication</t>
   </si>
   <si>
-    <t>Nausea;Pain In Extremity;Fight In School;Irritability;Drug Effect Decreased;Rash;Fatigue;Personality Change;Anger;Decreased Appetite;Abdominal Pain Upper;Vomiting;Aggression;Hyperhidrosis;Asthenia;Abnormal Behaviour;Muscle Spasms;Hair Growth Abnormal</t>
+    <t>Personality Change;Aggression;Pain In Extremity;Irritability;Abdominal Pain Upper;Hair Growth Abnormal;Nausea;Asthenia;Rash;Hyperhidrosis;Fight In School;Vomiting;Drug Effect Decreased;Decreased Appetite;Muscle Spasms;Anger;Fatigue;Abnormal Behaviour</t>
   </si>
   <si>
     <t>Non-Serious</t>
@@ -190,7 +190,7 @@
     <t>Ptc Therapeutics</t>
   </si>
   <si>
-    <t>Ranitidine;Cetirizine Hydrochloride;Loratadine</t>
+    <t>Loratadine;Ranitidine;Cetirizine Hydrochloride</t>
   </si>
   <si>
     <t>18-DEC-2017</t>
@@ -202,7 +202,7 @@
     <t>US-PTC THERAPEUTICS, INC.-US-2017PTC001276</t>
   </si>
   <si>
-    <t>Aggression;Drug Ineffective;Product Substitution Issue;Fight In School</t>
+    <t>Aggression;Fight In School;Drug Ineffective;Product Substitution Issue</t>
   </si>
   <si>
     <t>Disabled</t>
@@ -220,7 +220,7 @@
     <t>Lisdexamfetamine Dimesylate</t>
   </si>
   <si>
-    <t>Aggression;Fight In School;Intentional Self-Injury;Loss Of Consciousness</t>
+    <t>Intentional Self-Injury;Aggression;Loss Of Consciousness;Fight In School</t>
   </si>
   <si>
     <t>24-APR-2017</t>
@@ -256,7 +256,7 @@
     <t>Constipation</t>
   </si>
   <si>
-    <t>Phobia;Autism Spectrum Disorder;Fight In School;Oppositional Defiant Disorder</t>
+    <t>Fight In School;Phobia;Autism Spectrum Disorder;Oppositional Defiant Disorder</t>
   </si>
   <si>
     <t>01-APR-2012</t>
@@ -298,7 +298,7 @@
     <t>Asthma</t>
   </si>
   <si>
-    <t>Aggression;Quality Of Life Decreased;Fight In School;Nightmare</t>
+    <t>Aggression;Nightmare;Fight In School;Quality Of Life Decreased</t>
   </si>
   <si>
     <t>01-AUG-2016</t>
@@ -319,7 +319,7 @@
     <t>Asthma;Hypersensitivity</t>
   </si>
   <si>
-    <t>Fight In School;Personality Change;Depression;Aggression;Hysterical Psychosis;Antisocial Behaviour;Emotional Disorder;Crying</t>
+    <t>Depression;Crying;Antisocial Behaviour;Personality Change;Aggression;Emotional Disorder;Hysterical Psychosis;Fight In School</t>
   </si>
   <si>
     <t>15-JAN-2015</t>
@@ -334,7 +334,7 @@
     <t>40 LB</t>
   </si>
   <si>
-    <t>Nasonex;Albuterol;Claritin</t>
+    <t>Claritin;Albuterol;Nasonex</t>
   </si>
   <si>
     <t>Strattera</t>
@@ -343,7 +343,7 @@
     <t>Atomoxetine Hydrochloride</t>
   </si>
   <si>
-    <t>Fight In School;Hostility;Aggression</t>
+    <t>Aggression;Hostility;Fight In School</t>
   </si>
   <si>
     <t>AUG-2008</t>
@@ -364,7 +364,7 @@
     <t>US-ELI_LILLY_AND_COMPANY-US200901004072</t>
   </si>
   <si>
-    <t>Drug Ineffective;Fight In School</t>
+    <t>Fight In School;Drug Ineffective</t>
   </si>
   <si>
     <t>JAN-2008</t>
@@ -382,7 +382,7 @@
     <t>US-ELI_LILLY_AND_COMPANY-US200801005930</t>
   </si>
   <si>
-    <t>Psychomotor Hyperactivity;Aggression;Drug Ineffective;Fight In School</t>
+    <t>Drug Ineffective;Aggression;Psychomotor Hyperactivity;Fight In School</t>
   </si>
   <si>
     <t>NOV-2007</t>
@@ -397,7 +397,7 @@
     <t>US-ELI_LILLY_AND_COMPANY-US200801002464</t>
   </si>
   <si>
-    <t>Fight In School;Suicidal Ideation;Pallor;Drug Ineffective;Nausea;Conduct Disorder;Vomiting;Somnolence</t>
+    <t>Nausea;Fight In School;Conduct Disorder;Pallor;Suicidal Ideation;Drug Ineffective;Somnolence;Vomiting</t>
   </si>
   <si>
     <t>OCT-2007</t>
@@ -412,10 +412,10 @@
     <t>Vyvanse</t>
   </si>
   <si>
-    <t>Stress;Fight In School;Suicidal Ideation;Hallucination, Visual</t>
-  </si>
-  <si>
-    <t>Life Threatening;Required Intervention;Hospitalized;Other Outcomes</t>
+    <t>Stress;Suicidal Ideation;Hallucination, Visual;Fight In School</t>
+  </si>
+  <si>
+    <t>Other Outcomes;Hospitalized;Life Threatening;Required Intervention</t>
   </si>
   <si>
     <t>15-JUN-2015</t>
@@ -433,7 +433,7 @@
     <t>Methylphenidate Hydrochloride</t>
   </si>
   <si>
-    <t>Disturbance In Social Behaviour;Fight In School;Drug Ineffective;Personality Change</t>
+    <t>Personality Change;Drug Ineffective;Fight In School;Disturbance In Social Behaviour</t>
   </si>
   <si>
     <t>24-MAY-2015</t>
@@ -454,7 +454,7 @@
     <t>Guanfacine</t>
   </si>
   <si>
-    <t>Fight In School;Abnormal Behaviour;Verbal Abuse</t>
+    <t>Abnormal Behaviour;Fight In School;Verbal Abuse</t>
   </si>
   <si>
     <t>02-MAR-2015</t>
@@ -490,7 +490,7 @@
     <t>Affective Disorder;Attention Deficit/Hyperactivity Disorder;Oppositional Defiant Disorder;Sleep Disorder</t>
   </si>
   <si>
-    <t>Product Dose Omission;Fight In School;Abnormal Behaviour;Anger</t>
+    <t>Abnormal Behaviour;Product Dose Omission;Anger;Fight In School</t>
   </si>
   <si>
     <t>AUG-2014</t>
@@ -505,7 +505,7 @@
     <t>67.12 KG</t>
   </si>
   <si>
-    <t>Lamotrigine;Abilify</t>
+    <t>Abilify;Lamotrigine</t>
   </si>
   <si>
     <t>09-OCT-2014</t>
@@ -514,7 +514,7 @@
     <t>US-SHIRE-US201406887</t>
   </si>
   <si>
-    <t>Fight In School;Therapy Cessation;Product Use Issue</t>
+    <t>Therapy Cessation;Product Use Issue;Fight In School</t>
   </si>
   <si>
     <t>2014</t>
@@ -529,7 +529,7 @@
     <t>US-SHIRE-US201404464</t>
   </si>
   <si>
-    <t>Aggression;Psychotic Disorder;Fight In School;Irritability</t>
+    <t>Aggression;Irritability;Fight In School;Psychotic Disorder</t>
   </si>
   <si>
     <t>23-MAR-2014</t>
@@ -547,7 +547,7 @@
     <t>US-WATSON-2014-06528</t>
   </si>
   <si>
-    <t>Educational Problem;Fight In School;Abnormal Behaviour;Logorrhoea;Agitation;Sleep Disorder;Product Substitution Issue;Aggression;Dysphagia;Disturbance In Attention;Product Quality Issue;Drug Ineffective;Psychomotor Hyperactivity</t>
+    <t>Aggression;Educational Problem;Fight In School;Sleep Disorder;Logorrhoea;Product Quality Issue;Abnormal Behaviour;Psychomotor Hyperactivity;Product Substitution Issue;Disturbance In Attention;Agitation;Drug Ineffective;Dysphagia</t>
   </si>
   <si>
     <t>21-MAR-2014</t>
@@ -559,7 +559,7 @@
     <t>42 LB</t>
   </si>
   <si>
-    <t>Crying;Aggression;Tearfulness;Fight In School</t>
+    <t>Fight In School;Crying;Aggression;Tearfulness</t>
   </si>
   <si>
     <t>27-SEP-2013</t>
@@ -574,7 +574,7 @@
     <t>Asthma;Rhinitis Allergic</t>
   </si>
   <si>
-    <t>Nightmare;Aggression;Irritability;Educational Problem;Weight Decreased;Thirst;Fight In School;Disturbance In Attention;Decreased Appetite;Hallucination</t>
+    <t>Decreased Appetite;Disturbance In Attention;Hallucination;Nightmare;Educational Problem;Aggression;Weight Decreased;Thirst;Fight In School;Irritability</t>
   </si>
   <si>
     <t>30-SEP-2008</t>
@@ -598,7 +598,7 @@
     <t>US-MERCK-0907USA03619</t>
   </si>
   <si>
-    <t>Aggression;Anger;Headache;Cough;Dysphonia;Vomiting;Somnolence;Mood Altered;Crying;Fight In School;Abdominal Pain Upper;Abnormal Behaviour;Eye Swelling;Fatigue;Nasal Congestion</t>
+    <t>Abdominal Pain Upper;Crying;Mood Altered;Nasal Congestion;Headache;Cough;Dysphonia;Eye Swelling;Aggression;Fight In School;Vomiting;Anger;Fatigue;Somnolence;Abnormal Behaviour</t>
   </si>
   <si>
     <t>24-JUL-2008</t>
@@ -616,10 +616,10 @@
     <t>Eczema</t>
   </si>
   <si>
-    <t>Fight In School;Anger;Physical Assault;Screaming;Aggression;Impulsive Behaviour;Oppositional Defiant Disorder;Conduct Disorder;Visual Impairment</t>
-  </si>
-  <si>
-    <t>Life Threatening;Disabled</t>
+    <t>Aggression;Fight In School;Conduct Disorder;Physical Assault;Screaming;Oppositional Defiant Disorder;Visual Impairment;Impulsive Behaviour;Anger</t>
+  </si>
+  <si>
+    <t>Disabled;Life Threatening</t>
   </si>
   <si>
     <t>13-JUN-2012</t>
@@ -643,7 +643,7 @@
     <t>Paroxysmal Nocturnal Haemoglobinuria</t>
   </si>
   <si>
-    <t>Head Injury;Depression;Fight In School</t>
+    <t>Depression;Fight In School;Head Injury</t>
   </si>
   <si>
     <t>31-JAN-2012</t>
@@ -673,7 +673,7 @@
     <t>Acne</t>
   </si>
   <si>
-    <t>Depression;Fight In School;Hallucinations, Mixed;Nightmare;Suicidal Ideation;Crying</t>
+    <t>Suicidal Ideation;Crying;Hallucinations, Mixed;Nightmare;Fight In School;Depression</t>
   </si>
   <si>
     <t>21-JAN-2012</t>
@@ -700,7 +700,7 @@
     <t>Aripiprazole</t>
   </si>
   <si>
-    <t>Feeling Abnormal;Lethargy;Fight In School</t>
+    <t>Lethargy;Feeling Abnormal;Fight In School</t>
   </si>
   <si>
     <t>16-DEC-2011</t>
@@ -727,7 +727,7 @@
     <t>Agitation</t>
   </si>
   <si>
-    <t>Fight In School;Agitation;Varicella</t>
+    <t>Agitation;Varicella;Fight In School</t>
   </si>
   <si>
     <t>10-OCT-2011</t>
@@ -751,7 +751,7 @@
     <t>Asthma;Eczema</t>
   </si>
   <si>
-    <t>Aggression;Fight In School;Conduct Disorder;Impulsive Behaviour;Visual Impairment;Physical Assault;Screaming;Oppositional Defiant Disorder;Anger</t>
+    <t>Visual Impairment;Fight In School;Physical Assault;Screaming;Impulsive Behaviour;Oppositional Defiant Disorder;Aggression;Conduct Disorder;Anger</t>
   </si>
   <si>
     <t>07-SEP-2011</t>
@@ -772,7 +772,7 @@
     <t>Depression</t>
   </si>
   <si>
-    <t>Restlessness;Social Avoidant Behaviour;Fight In School;Insomnia;Aggression;Hallucination, Auditory;Self-Injurious Ideation</t>
+    <t>Restlessness;Hallucination, Auditory;Self-Injurious Ideation;Fight In School;Insomnia;Aggression;Social Avoidant Behaviour</t>
   </si>
   <si>
     <t>17-APR-1984</t>
@@ -787,13 +787,13 @@
     <t>154 LB</t>
   </si>
   <si>
-    <t>Daytrana;Intuniv;Methylin</t>
-  </si>
-  <si>
-    <t>Methylphenidate Hydrochloride;Guanfacine Hydrochloride;Methylphenidate</t>
-  </si>
-  <si>
-    <t>Abnormal Behaviour;Aggression;Drug Ineffective;Fight In School;Decreased Appetite</t>
+    <t>Intuniv;Daytrana;Methylin</t>
+  </si>
+  <si>
+    <t>Methylphenidate Hydrochloride;Methylphenidate;Guanfacine Hydrochloride</t>
+  </si>
+  <si>
+    <t>Decreased Appetite;Abnormal Behaviour;Aggression;Drug Ineffective;Fight In School</t>
   </si>
   <si>
     <t>01-JAN-2008</t>
@@ -823,357 +823,360 @@
     <t>Aggression;Suicidal Ideation;Fight In School;Anger</t>
   </si>
   <si>
+    <t>Other Outcomes;Life Threatening</t>
+  </si>
+  <si>
+    <t>10-MAY-2010</t>
+  </si>
+  <si>
+    <t>02-JUN-2010</t>
+  </si>
+  <si>
+    <t>44 LB</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation;Fight In School;Aggression;Emotional Disorder;Mood Altered;Agitation;Abnormal Behaviour;Depression</t>
+  </si>
+  <si>
+    <t>27-MAY-2010</t>
+  </si>
+  <si>
+    <t>21-MAY-2010</t>
+  </si>
+  <si>
+    <t>US-MERCK-1005USA03287</t>
+  </si>
+  <si>
+    <t>Hypersensitivity</t>
+  </si>
+  <si>
+    <t>Mood Swings;Paranoia;Agitation;Fight In School;Abnormal Dreams;Aggression</t>
+  </si>
+  <si>
+    <t>25-OCT-2009</t>
+  </si>
+  <si>
+    <t>03-MAR-2010</t>
+  </si>
+  <si>
+    <t>35.5 KG</t>
+  </si>
+  <si>
+    <t>Dextroamphet Saccharat, Amphet Aspartate, Dextroamphet Sulfate And Amphet Sulfat</t>
+  </si>
+  <si>
+    <t>Amphetamine Aspartate\Amphetamine Sulfate\Dextroamphetamine Saccharate\Dextroamphetamine Sulfate</t>
+  </si>
+  <si>
+    <t>Fight In School;Abnormal Behaviour;Product Substitution Issue</t>
+  </si>
+  <si>
+    <t>15-MAY-2009</t>
+  </si>
+  <si>
+    <t>29-JUN-2009</t>
+  </si>
+  <si>
+    <t>54 LB</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Nutropin Aq</t>
+  </si>
+  <si>
+    <t>Somatropin</t>
+  </si>
+  <si>
+    <t>Body Height Below Normal;Osteogenesis Imperfecta</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation;Fight In School;Physical Abuse;Violence-Related Symptom;Homicidal Ideation</t>
+  </si>
+  <si>
+    <t>Hospitalized</t>
+  </si>
+  <si>
+    <t>26-FEB-2009</t>
+  </si>
+  <si>
+    <t>03-MAR-2009</t>
+  </si>
+  <si>
+    <t>30.2 KG</t>
+  </si>
+  <si>
+    <t>Attention Deficit/Hyperactivity Disorder;Sleep Disorder</t>
+  </si>
+  <si>
+    <t>Decreased Appetite;Insomnia;Fight In School;Treatment Noncompliance;Developmental Delay</t>
+  </si>
+  <si>
+    <t>01-FEB-2009</t>
+  </si>
+  <si>
+    <t>68.04 KG</t>
+  </si>
+  <si>
+    <t>Ortho</t>
+  </si>
+  <si>
+    <t>20-FEB-2009</t>
+  </si>
+  <si>
+    <t>US-JNJFOC-20090205845</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation;Fight In School;Aggression;Intentional Self-Injury</t>
+  </si>
+  <si>
+    <t>20-NOV-2008</t>
+  </si>
+  <si>
+    <t>05-FEB-2009</t>
+  </si>
+  <si>
+    <t>84 LB</t>
+  </si>
+  <si>
+    <t>Aripiprazole;Buspirone Hydrochloride</t>
+  </si>
+  <si>
+    <t>Autism Spectrum Disorder;Mental Disorder;Schizophrenia</t>
+  </si>
+  <si>
+    <t>Anger;Impatience;Restlessness;Fight In School;Aggression;Agitation;Mood Altered;Insomnia</t>
+  </si>
+  <si>
+    <t>13-JAN-2009</t>
+  </si>
+  <si>
+    <t>45 LB</t>
+  </si>
+  <si>
+    <t>Aggression;Decreased Appetite;Disturbance In Attention;Thirst;Educational Problem;Fight In School;Irritability;Hallucination;Nightmare;Weight Decreased</t>
+  </si>
+  <si>
+    <t>14-OCT-2008</t>
+  </si>
+  <si>
+    <t>52 LB</t>
+  </si>
+  <si>
+    <t>Celexa;Wellbutrin</t>
+  </si>
+  <si>
+    <t>Bupropion Hydrochloride;Unspecified Ingredient;Citalopram Hydrobromide</t>
+  </si>
+  <si>
+    <t>Anxiety;Depression</t>
+  </si>
+  <si>
+    <t>Dizziness;Restlessness;Nausea;Drug Interaction;Contusion;Hot Flush;Muscular Weakness;Headache;Anxiety;Suicidal Ideation;Panic Attack;Intentional Self-Injury;Emotional Disorder;Scratch;Hyperhidrosis;Paraesthesia;Drug Withdrawal Syndrome;Fight In School;Abnormal Behaviour;Agitation</t>
+  </si>
+  <si>
+    <t>18-DEC-2007</t>
+  </si>
+  <si>
+    <t>06-OCT-2008</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Multi-Vitamin</t>
+  </si>
+  <si>
+    <t>02-OCT-2008</t>
+  </si>
+  <si>
+    <t>25-APR-2008</t>
+  </si>
+  <si>
+    <t>S07-USA-06414-01</t>
+  </si>
+  <si>
+    <t>Crying;Dysphonia;Abdominal Pain Upper;Fight In School;Mood Altered;Somnolence;Anger;Cough;Abnormal Behaviour;Aggression;Eye Swelling;Headache;Fatigue;Vomiting;Nasal Congestion</t>
+  </si>
+  <si>
+    <t>28-AUG-2008</t>
+  </si>
+  <si>
+    <t>37 LB</t>
+  </si>
+  <si>
+    <t>Asthma;Hypersensitivity;Sinusitis</t>
+  </si>
+  <si>
+    <t>Fight In School;Overdose;Social Avoidant Behaviour;Aggression;Withdrawal Syndrome</t>
+  </si>
+  <si>
+    <t>01-MAY-2004</t>
+  </si>
+  <si>
+    <t>25-JUL-2008</t>
+  </si>
+  <si>
+    <t>68 KG</t>
+  </si>
+  <si>
+    <t>Veramyst;Zyrtec-D;Nasonex;Allegra-D;Biaxin</t>
+  </si>
+  <si>
+    <t>15-JUL-2008</t>
+  </si>
+  <si>
+    <t>US-MERCK-0804USA03804</t>
+  </si>
+  <si>
+    <t>Depression;Fight In School;Suicidal Ideation;Insomnia</t>
+  </si>
+  <si>
+    <t>Life Threatening</t>
+  </si>
+  <si>
+    <t>01-APR-2008</t>
+  </si>
+  <si>
+    <t>09-MAY-2008</t>
+  </si>
+  <si>
+    <t>46 KG</t>
+  </si>
+  <si>
+    <t>Albuterol</t>
+  </si>
+  <si>
+    <t>07-MAY-2008</t>
+  </si>
+  <si>
+    <t>29-APR-2008</t>
+  </si>
+  <si>
+    <t>US-MERCK-0804USA04736</t>
+  </si>
+  <si>
+    <t>Ritalin;Ritalin La</t>
+  </si>
+  <si>
+    <t>Methylphenidate Hydrochloride;Methylphenidate Hydrochloride</t>
+  </si>
+  <si>
+    <t>Personality Change;Abnormal Behaviour;Fight In School;Crying;Decreased Appetite;Depression;Treatment Noncompliance</t>
+  </si>
+  <si>
+    <t>18-APR-2008</t>
+  </si>
+  <si>
+    <t>31 KG</t>
+  </si>
+  <si>
+    <t>09-APR-2008</t>
+  </si>
+  <si>
+    <t>PHHY2008BR05359</t>
+  </si>
+  <si>
+    <t>Ritalin</t>
+  </si>
+  <si>
+    <t>Fight In School;Aggression;Screaming;Blood Pressure Increased</t>
+  </si>
+  <si>
+    <t>04-FEB-2008</t>
+  </si>
+  <si>
+    <t>26-SEP-2007</t>
+  </si>
+  <si>
+    <t>PHEH2007US12899</t>
+  </si>
+  <si>
+    <t>Antisocial Behaviour;Psychomotor Hyperactivity;Fight In School;Aggression</t>
+  </si>
+  <si>
+    <t>01-OCT-2006</t>
+  </si>
+  <si>
+    <t>13-DEC-2006</t>
+  </si>
+  <si>
+    <t>29 KG</t>
+  </si>
+  <si>
+    <t>30-NOV-2006</t>
+  </si>
+  <si>
+    <t>SE-ELI_LILLY_AND_COMPANY-SE200611003582</t>
+  </si>
+  <si>
+    <t>Trileptal</t>
+  </si>
+  <si>
+    <t>Oxcarbazepine</t>
+  </si>
+  <si>
+    <t>Bipolar Disorder</t>
+  </si>
+  <si>
+    <t>Fight In School;Bipolar Disorder;Weight Increased;Homicidal Ideation</t>
+  </si>
+  <si>
+    <t>01-SEP-2005</t>
+  </si>
+  <si>
+    <t>26-APR-2006</t>
+  </si>
+  <si>
+    <t>109 KG</t>
+  </si>
+  <si>
+    <t>18-APR-2006</t>
+  </si>
+  <si>
+    <t>PHEH2006US05070</t>
+  </si>
+  <si>
+    <t>Fight In School;Drug Ineffective;Aggression;Intentional Self-Injury;Physical Assault</t>
+  </si>
+  <si>
+    <t>JAN-2006</t>
+  </si>
+  <si>
+    <t>24-MAR-2006</t>
+  </si>
+  <si>
+    <t>Company Representative ,Health Professional ,Foreign</t>
+  </si>
+  <si>
+    <t>13-MAR-2006</t>
+  </si>
+  <si>
+    <t>GB200602003984</t>
+  </si>
+  <si>
+    <t>Irritability;Educational Problem;Thinking Abnormal;Angina Pectoris;Growing Pains;Suicidal Ideation;Fight In School;Aggression;Homicidal Ideation</t>
+  </si>
+  <si>
+    <t>Life Threatening;Hospitalized</t>
+  </si>
+  <si>
+    <t>14-JAN-2006</t>
+  </si>
+  <si>
+    <t>15-FEB-2006</t>
+  </si>
+  <si>
+    <t>100 LB</t>
+  </si>
+  <si>
+    <t>Suicidal Ideation;Fight In School;Impulsive Behaviour;Pyromania;Suicide Attempt;Abnormal Behaviour;Legal Problem;Insomnia;Hallucination, Auditory</t>
+  </si>
+  <si>
     <t>Life Threatening;Other Outcomes</t>
   </si>
   <si>
-    <t>10-MAY-2010</t>
-  </si>
-  <si>
-    <t>02-JUN-2010</t>
-  </si>
-  <si>
-    <t>44 LB</t>
-  </si>
-  <si>
-    <t>Aggression;Fight In School;Abnormal Behaviour;Suicidal Ideation;Depression;Emotional Disorder;Agitation;Mood Altered</t>
-  </si>
-  <si>
-    <t>27-MAY-2010</t>
-  </si>
-  <si>
-    <t>21-MAY-2010</t>
-  </si>
-  <si>
-    <t>US-MERCK-1005USA03287</t>
-  </si>
-  <si>
-    <t>Hypersensitivity</t>
-  </si>
-  <si>
-    <t>Paranoia;Mood Swings;Aggression;Abnormal Dreams;Agitation;Fight In School</t>
-  </si>
-  <si>
-    <t>25-OCT-2009</t>
-  </si>
-  <si>
-    <t>03-MAR-2010</t>
-  </si>
-  <si>
-    <t>35.5 KG</t>
-  </si>
-  <si>
-    <t>Dextroamphet Saccharat, Amphet Aspartate, Dextroamphet Sulfate And Amphet Sulfat</t>
-  </si>
-  <si>
-    <t>Amphetamine Aspartate\Amphetamine Sulfate\Dextroamphetamine Saccharate\Dextroamphetamine Sulfate</t>
-  </si>
-  <si>
-    <t>Abnormal Behaviour;Fight In School;Product Substitution Issue</t>
-  </si>
-  <si>
-    <t>15-MAY-2009</t>
-  </si>
-  <si>
-    <t>29-JUN-2009</t>
-  </si>
-  <si>
-    <t>54 LB</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Nutropin Aq</t>
-  </si>
-  <si>
-    <t>Somatropin</t>
-  </si>
-  <si>
-    <t>Body Height Below Normal;Osteogenesis Imperfecta</t>
-  </si>
-  <si>
-    <t>Fight In School;Suicidal Ideation;Homicidal Ideation;Violence-Related Symptom;Physical Abuse</t>
-  </si>
-  <si>
-    <t>Hospitalized</t>
-  </si>
-  <si>
-    <t>26-FEB-2009</t>
-  </si>
-  <si>
-    <t>03-MAR-2009</t>
-  </si>
-  <si>
-    <t>30.2 KG</t>
-  </si>
-  <si>
-    <t>Attention Deficit/Hyperactivity Disorder;Sleep Disorder</t>
-  </si>
-  <si>
-    <t>Insomnia;Decreased Appetite;Treatment Noncompliance;Fight In School;Developmental Delay</t>
-  </si>
-  <si>
-    <t>01-FEB-2009</t>
-  </si>
-  <si>
-    <t>68.04 KG</t>
-  </si>
-  <si>
-    <t>Ortho</t>
-  </si>
-  <si>
-    <t>20-FEB-2009</t>
-  </si>
-  <si>
-    <t>US-JNJFOC-20090205845</t>
-  </si>
-  <si>
-    <t>Fight In School;Intentional Self-Injury;Aggression;Suicidal Ideation</t>
-  </si>
-  <si>
-    <t>20-NOV-2008</t>
-  </si>
-  <si>
-    <t>05-FEB-2009</t>
-  </si>
-  <si>
-    <t>84 LB</t>
-  </si>
-  <si>
-    <t>Aripiprazole;Buspirone Hydrochloride</t>
-  </si>
-  <si>
-    <t>Autism Spectrum Disorder;Mental Disorder;Schizophrenia</t>
-  </si>
-  <si>
-    <t>Fight In School;Agitation;Impatience;Mood Altered;Insomnia;Anger;Aggression;Restlessness</t>
-  </si>
-  <si>
-    <t>13-JAN-2009</t>
-  </si>
-  <si>
-    <t>45 LB</t>
-  </si>
-  <si>
-    <t>Educational Problem;Fight In School;Weight Decreased;Aggression;Decreased Appetite;Irritability;Thirst;Nightmare;Disturbance In Attention;Hallucination</t>
-  </si>
-  <si>
-    <t>14-OCT-2008</t>
-  </si>
-  <si>
-    <t>52 LB</t>
-  </si>
-  <si>
-    <t>Wellbutrin;Celexa</t>
-  </si>
-  <si>
-    <t>Citalopram Hydrobromide;Bupropion Hydrochloride;Unspecified Ingredient</t>
-  </si>
-  <si>
-    <t>Anxiety;Depression</t>
-  </si>
-  <si>
-    <t>Intentional Self-Injury;Fight In School;Muscular Weakness;Restlessness;Contusion;Emotional Disorder;Headache;Drug Interaction;Agitation;Hyperhidrosis;Dizziness;Hot Flush;Suicidal Ideation;Nausea;Paraesthesia;Panic Attack;Abnormal Behaviour;Drug Withdrawal Syndrome;Scratch;Anxiety</t>
-  </si>
-  <si>
-    <t>18-DEC-2007</t>
-  </si>
-  <si>
-    <t>06-OCT-2008</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Multi-Vitamin</t>
-  </si>
-  <si>
-    <t>02-OCT-2008</t>
-  </si>
-  <si>
-    <t>25-APR-2008</t>
-  </si>
-  <si>
-    <t>S07-USA-06414-01</t>
-  </si>
-  <si>
-    <t>Abnormal Behaviour;Headache;Eye Swelling;Mood Altered;Crying;Aggression;Vomiting;Anger;Fatigue;Nasal Congestion;Fight In School;Somnolence;Abdominal Pain Upper;Dysphonia;Cough</t>
-  </si>
-  <si>
-    <t>28-AUG-2008</t>
-  </si>
-  <si>
-    <t>37 LB</t>
-  </si>
-  <si>
-    <t>Asthma;Hypersensitivity;Sinusitis</t>
-  </si>
-  <si>
-    <t>Aggression;Social Avoidant Behaviour;Overdose;Fight In School;Withdrawal Syndrome</t>
-  </si>
-  <si>
-    <t>01-MAY-2004</t>
-  </si>
-  <si>
-    <t>25-JUL-2008</t>
-  </si>
-  <si>
-    <t>68 KG</t>
-  </si>
-  <si>
-    <t>Veramyst;Zyrtec-D;Allegra-D;Nasonex;Biaxin</t>
-  </si>
-  <si>
-    <t>15-JUL-2008</t>
-  </si>
-  <si>
-    <t>US-MERCK-0804USA03804</t>
-  </si>
-  <si>
-    <t>Depression;Suicidal Ideation;Insomnia;Fight In School</t>
-  </si>
-  <si>
-    <t>Life Threatening</t>
-  </si>
-  <si>
-    <t>01-APR-2008</t>
-  </si>
-  <si>
-    <t>09-MAY-2008</t>
-  </si>
-  <si>
-    <t>46 KG</t>
-  </si>
-  <si>
-    <t>Albuterol</t>
-  </si>
-  <si>
-    <t>07-MAY-2008</t>
-  </si>
-  <si>
-    <t>29-APR-2008</t>
-  </si>
-  <si>
-    <t>US-MERCK-0804USA04736</t>
-  </si>
-  <si>
-    <t>Ritalin;Ritalin La</t>
-  </si>
-  <si>
-    <t>Methylphenidate Hydrochloride;Methylphenidate Hydrochloride</t>
-  </si>
-  <si>
-    <t>Treatment Noncompliance;Depression;Abnormal Behaviour;Crying;Fight In School;Decreased Appetite;Personality Change</t>
-  </si>
-  <si>
-    <t>18-APR-2008</t>
-  </si>
-  <si>
-    <t>31 KG</t>
-  </si>
-  <si>
-    <t>09-APR-2008</t>
-  </si>
-  <si>
-    <t>PHHY2008BR05359</t>
-  </si>
-  <si>
-    <t>Ritalin</t>
-  </si>
-  <si>
-    <t>Blood Pressure Increased;Fight In School;Aggression;Screaming</t>
-  </si>
-  <si>
-    <t>04-FEB-2008</t>
-  </si>
-  <si>
-    <t>26-SEP-2007</t>
-  </si>
-  <si>
-    <t>PHEH2007US12899</t>
-  </si>
-  <si>
-    <t>Fight In School;Antisocial Behaviour;Aggression;Psychomotor Hyperactivity</t>
-  </si>
-  <si>
-    <t>01-OCT-2006</t>
-  </si>
-  <si>
-    <t>13-DEC-2006</t>
-  </si>
-  <si>
-    <t>29 KG</t>
-  </si>
-  <si>
-    <t>30-NOV-2006</t>
-  </si>
-  <si>
-    <t>SE-ELI_LILLY_AND_COMPANY-SE200611003582</t>
-  </si>
-  <si>
-    <t>Trileptal</t>
-  </si>
-  <si>
-    <t>Oxcarbazepine</t>
-  </si>
-  <si>
-    <t>Bipolar Disorder</t>
-  </si>
-  <si>
-    <t>Homicidal Ideation;Bipolar Disorder;Fight In School;Weight Increased</t>
-  </si>
-  <si>
-    <t>01-SEP-2005</t>
-  </si>
-  <si>
-    <t>26-APR-2006</t>
-  </si>
-  <si>
-    <t>109 KG</t>
-  </si>
-  <si>
-    <t>18-APR-2006</t>
-  </si>
-  <si>
-    <t>PHEH2006US05070</t>
-  </si>
-  <si>
-    <t>Intentional Self-Injury;Physical Assault;Aggression;Fight In School;Drug Ineffective</t>
-  </si>
-  <si>
-    <t>JAN-2006</t>
-  </si>
-  <si>
-    <t>24-MAR-2006</t>
-  </si>
-  <si>
-    <t>Company Representative ,Health Professional ,Foreign</t>
-  </si>
-  <si>
-    <t>13-MAR-2006</t>
-  </si>
-  <si>
-    <t>GB200602003984</t>
-  </si>
-  <si>
-    <t>Homicidal Ideation;Angina Pectoris;Thinking Abnormal;Suicidal Ideation;Aggression;Educational Problem;Irritability;Growing Pains;Fight In School</t>
-  </si>
-  <si>
-    <t>Life Threatening;Hospitalized</t>
-  </si>
-  <si>
-    <t>14-JAN-2006</t>
-  </si>
-  <si>
-    <t>15-FEB-2006</t>
-  </si>
-  <si>
-    <t>100 LB</t>
-  </si>
-  <si>
-    <t>Hallucination, Auditory;Fight In School;Suicide Attempt;Abnormal Behaviour;Suicidal Ideation;Pyromania;Insomnia;Legal Problem;Impulsive Behaviour</t>
-  </si>
-  <si>
     <t>07-MAY-2005</t>
   </si>
   <si>
@@ -1192,7 +1195,7 @@
     <t>US_0508121096</t>
   </si>
   <si>
-    <t>Fight In School;Attention-Seeking Behaviour</t>
+    <t>Attention-Seeking Behaviour;Fight In School</t>
   </si>
   <si>
     <t>27-SEP-2005</t>
@@ -1204,7 +1207,7 @@
     <t>USA050599107</t>
   </si>
   <si>
-    <t>Growth Retardation;Mania;Bipolar Disorder;Anger;Impulsive Behaviour;Nervous System Disorder;Educational Problem;Suicidal Ideation;Aggression;Refusal Of Treatment By Patient;Fight In School;Abnormal Behaviour;Legal Problem;Anxiety;Drug Abuser</t>
+    <t>Refusal Of Treatment By Patient;Abnormal Behaviour;Suicidal Ideation;Fight In School;Anger;Growth Retardation;Nervous System Disorder;Educational Problem;Aggression;Bipolar Disorder;Drug Abuser;Mania;Impulsive Behaviour;Anxiety;Legal Problem</t>
   </si>
   <si>
     <t>1996</t>
@@ -1231,13 +1234,13 @@
     <t>USA040977305</t>
   </si>
   <si>
-    <t>Aggression;Bipolar Disorder;Fight In School;Abnormal Behaviour</t>
+    <t>Fight In School;Aggression;Bipolar Disorder;Abnormal Behaviour</t>
   </si>
   <si>
     <t>14-JAN-2005</t>
   </si>
   <si>
-    <t>Risperdal;Strattera</t>
+    <t>Strattera;Risperdal</t>
   </si>
   <si>
     <t>05-JAN-2005</t>
@@ -1246,7 +1249,7 @@
     <t>PHEH2005US00555</t>
   </si>
   <si>
-    <t>Irritability;Fight In School</t>
+    <t>Fight In School;Irritability</t>
   </si>
   <si>
     <t>APR-2004</t>
@@ -1264,13 +1267,13 @@
     <t>Attention Deficit/Hyperactivity Disorder;Sensory Integrative Dysfunction</t>
   </si>
   <si>
-    <t>Fight In School;Overdose;Abnormal Behaviour;Suicidal Ideation;Drug Ineffective</t>
+    <t>Abnormal Behaviour;Suicidal Ideation;Fight In School;Drug Ineffective;Overdose</t>
   </si>
   <si>
     <t>45 KG</t>
   </si>
   <si>
-    <t>Depakote;Paxil;Risperdal</t>
+    <t>Depakote;Risperdal;Paxil</t>
   </si>
   <si>
     <t>21-APR-2004</t>
@@ -1282,19 +1285,19 @@
     <t>USA040157586</t>
   </si>
   <si>
-    <t>Zyprexa;Strattera</t>
-  </si>
-  <si>
-    <t>Atomoxetine Hydrochloride;Olanzapine</t>
-  </si>
-  <si>
-    <t>Dysuria;Drug Ineffective;Weight Increased;Constipation;Hunger;Oppositional Defiant Disorder;Anger;Intentional Self-Injury;Aggression;Drug Interaction;Dyspnoea;Irritability;Attention Deficit/Hyperactivity Disorder;Fight In School;Hyperphagia;Abnormal Behaviour;Insomnia</t>
+    <t>Strattera;Zyprexa</t>
+  </si>
+  <si>
+    <t>Olanzapine;Atomoxetine Hydrochloride</t>
+  </si>
+  <si>
+    <t>Weight Increased;Hunger;Drug Interaction;Intentional Self-Injury;Fight In School;Insomnia;Anger;Constipation;Hyperphagia;Dyspnoea;Attention Deficit/Hyperactivity Disorder;Drug Ineffective;Dysuria;Abnormal Behaviour;Aggression;Oppositional Defiant Disorder;Irritability</t>
   </si>
   <si>
     <t>55 KG</t>
   </si>
   <si>
-    <t>Clonidine;Imipramine</t>
+    <t>Imipramine;Clonidine</t>
   </si>
   <si>
     <t>04-FEB-2004</t>
@@ -1309,7 +1312,7 @@
     <t>Disturbance In Attention</t>
   </si>
   <si>
-    <t>Abnormal Behaviour;Medication Error;Pyrexia;Hyperhidrosis;Disturbance In Attention;Somnolence;Drug Ineffective;Fight In School;Nausea;Psychomotor Hyperactivity;Asthenia;Tremor;Fatigue;Mood Swings;Nervousness;Oropharyngeal Pain</t>
+    <t>Asthenia;Hyperhidrosis;Pyrexia;Nervousness;Fight In School;Disturbance In Attention;Nausea;Fatigue;Abnormal Behaviour;Tremor;Drug Ineffective;Medication Error;Oropharyngeal Pain;Somnolence;Psychomotor Hyperactivity;Mood Swings</t>
   </si>
   <si>
     <t>02-SEP-2003</t>
@@ -1327,7 +1330,7 @@
     <t>USA030843714</t>
   </si>
   <si>
-    <t>Emotional Disorder;Fight In School</t>
+    <t>Fight In School;Emotional Disorder</t>
   </si>
   <si>
     <t>15-OCT-2003</t>
@@ -1336,7 +1339,7 @@
     <t>USA031050007</t>
   </si>
   <si>
-    <t>Fight In School;Irritability;Mood Swings;Anger;Mydriasis</t>
+    <t>Fight In School;Mydriasis;Mood Swings;Irritability;Anger</t>
   </si>
   <si>
     <t>37 KG</t>
@@ -1348,7 +1351,7 @@
     <t>USA031048885</t>
   </si>
   <si>
-    <t>Fight In School;Abnormal Behaviour;Drug Ineffective</t>
+    <t>Drug Ineffective;Abnormal Behaviour;Fight In School</t>
   </si>
   <si>
     <t>21-OCT-2003</t>
@@ -1363,10 +1366,10 @@
     <t>Depression;Obsessive-Compulsive Disorder</t>
   </si>
   <si>
-    <t>Psychotic Disorder;Fight In School;Anger;Disinhibition;Bipolar Disorder;Dysphonia;Condition Aggravated;Obsessive-Compulsive Disorder;Aggression;Abnormal Behaviour</t>
-  </si>
-  <si>
-    <t>Required Intervention;Hospitalized;Disabled</t>
+    <t>Aggression;Psychotic Disorder;Dysphonia;Abnormal Behaviour;Condition Aggravated;Bipolar Disorder;Obsessive-Compulsive Disorder;Disinhibition;Fight In School;Anger</t>
+  </si>
+  <si>
+    <t>Hospitalized;Required Intervention;Disabled</t>
   </si>
   <si>
     <t>03-MAY-2001</t>
@@ -1378,7 +1381,7 @@
     <t>130 LB</t>
   </si>
   <si>
-    <t>Increased Appetite;Abnormal Behaviour;Drug Ineffective;Fight In School;Overdose;Educational Problem</t>
+    <t>Educational Problem;Abnormal Behaviour;Fight In School;Overdose;Drug Ineffective;Increased Appetite</t>
   </si>
   <si>
     <t>25-JUN-2003</t>
@@ -1399,7 +1402,7 @@
     <t>Citalopram Hydrobromide;Clonazepam</t>
   </si>
   <si>
-    <t>Feeling Guilty;Medication Error;Weight Increased;Anger;Suicidal Ideation;Abnormal Behaviour;Drug Withdrawal Syndrome;Aggression;Fight In School;Drug Ineffective;Anxiety;Insomnia;Agitation</t>
+    <t>Drug Withdrawal Syndrome;Anxiety;Aggression;Drug Ineffective;Feeling Guilty;Suicidal Ideation;Insomnia;Medication Error;Fight In School;Agitation;Weight Increased;Anger;Abnormal Behaviour</t>
   </si>
   <si>
     <t>30-JUN-2001</t>
@@ -1414,7 +1417,7 @@
     <t>220 LB</t>
   </si>
   <si>
-    <t>Educational Problem;Fight In School</t>
+    <t>Fight In School;Educational Problem</t>
   </si>
   <si>
     <t>04-MAY-2001</t>
@@ -1435,7 +1438,7 @@
     <t>Bronchitis;Pharyngitis Streptococcal</t>
   </si>
   <si>
-    <t>Educational Problem;Agitation;Nervousness;Depression;Anxiety;Fight In School;Panic Attack;Otitis Media Acute;Aggression;Muscle Twitching</t>
+    <t>Fight In School;Otitis Media Acute;Anxiety;Panic Attack;Aggression;Agitation;Depression;Nervousness;Muscle Twitching;Educational Problem</t>
   </si>
   <si>
     <t>Required Intervention</t>
@@ -1462,7 +1465,7 @@
     <t>Acne Cystic</t>
   </si>
   <si>
-    <t>Psychotic Disorder;Fight In School;Confusional State;Vomiting;Fear;Suicidal Ideation;Catatonia;Irritability;Nausea;Thinking Abnormal;Emotional Disorder;Hallucination, Auditory;Psychiatric Symptom;Nasopharyngitis;Anxiety;Depression;Anger;Amnesia;Mood Swings</t>
+    <t>Psychiatric Symptom;Confusional State;Thinking Abnormal;Catatonia;Mood Swings;Suicidal Ideation;Nausea;Anxiety;Anger;Amnesia;Psychotic Disorder;Fight In School;Emotional Disorder;Irritability;Vomiting;Nasopharyngitis;Depression;Fear;Hallucination, Auditory</t>
   </si>
   <si>
     <t>27-APR-2000</t>
@@ -1486,7 +1489,7 @@
     <t>235626</t>
   </si>
   <si>
-    <t>Anger;Fight In School;Restlessness;Arthralgia;Educational Problem;Abnormal Behaviour;Aggression;Haemorrhage;Intentional Self-Injury</t>
+    <t>Educational Problem;Arthralgia;Aggression;Fight In School;Intentional Self-Injury;Restlessness;Haemorrhage;Anger;Abnormal Behaviour</t>
   </si>
   <si>
     <t>20-SEP-2000</t>
@@ -1510,7 +1513,7 @@
     <t>Obsessive-Compulsive Disorder</t>
   </si>
   <si>
-    <t>Foot Fracture;Aggression;Fight In School</t>
+    <t>Aggression;Fight In School;Foot Fracture</t>
   </si>
   <si>
     <t>26-JUL-1999</t>
@@ -5761,16 +5764,16 @@
         <v>5</v>
       </c>
       <c r="G53" t="s">
-        <v>269</v>
+        <v>386</v>
       </c>
       <c r="H53" t="s">
         <v>43</v>
       </c>
       <c r="I53" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J53" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s">
         <v>70</v>
@@ -5788,16 +5791,16 @@
         <v>73</v>
       </c>
       <c r="P53" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q53" t="s">
         <v>24</v>
       </c>
       <c r="R53" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="S53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T53" t="s">
         <v>39</v>
@@ -5806,7 +5809,7 @@
         <v>39</v>
       </c>
       <c r="V53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="W53" t="s">
         <v>24</v>
@@ -5829,7 +5832,7 @@
         <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F54" t="s">
         <v>53</v>
@@ -5844,7 +5847,7 @@
         <v>24</v>
       </c>
       <c r="J54" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K54" t="s">
         <v>56</v>
@@ -5868,11 +5871,11 @@
         <v>24</v>
       </c>
       <c r="R54" t="s">
+        <v>395</v>
+      </c>
+      <c r="S54" t="s">
         <v>394</v>
       </c>
-      <c r="S54" t="s">
-        <v>393</v>
-      </c>
       <c r="T54" t="s">
         <v>39</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>39</v>
       </c>
       <c r="V54" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="W54" t="s">
         <v>24</v>
@@ -5903,7 +5906,7 @@
         <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F55" t="s">
         <v>5</v>
@@ -5915,10 +5918,10 @@
         <v>43</v>
       </c>
       <c r="I55" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K55" t="s">
         <v>32</v>
@@ -5945,7 +5948,7 @@
         <v>24</v>
       </c>
       <c r="S55" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="T55" t="s">
         <v>39</v>
@@ -5977,7 +5980,7 @@
         <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F56" t="s">
         <v>53</v>
@@ -5992,7 +5995,7 @@
         <v>24</v>
       </c>
       <c r="J56" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K56" t="s">
         <v>56</v>
@@ -6001,7 +6004,7 @@
         <v>230</v>
       </c>
       <c r="M56" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N56" t="s">
         <v>113</v>
@@ -6013,13 +6016,13 @@
         <v>36</v>
       </c>
       <c r="Q56" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="R56" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="S56" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="T56" t="s">
         <v>39</v>
@@ -6028,7 +6031,7 @@
         <v>39</v>
       </c>
       <c r="V56" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="W56" t="s">
         <v>24</v>
@@ -6051,7 +6054,7 @@
         <v>41</v>
       </c>
       <c r="E57" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F57" t="s">
         <v>5</v>
@@ -6066,7 +6069,7 @@
         <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K57" t="s">
         <v>70</v>
@@ -6075,7 +6078,7 @@
         <v>66</v>
       </c>
       <c r="M57" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N57" t="s">
         <v>240</v>
@@ -6087,13 +6090,13 @@
         <v>39</v>
       </c>
       <c r="Q57" t="s">
+        <v>408</v>
+      </c>
+      <c r="R57" t="s">
+        <v>409</v>
+      </c>
+      <c r="S57" t="s">
         <v>407</v>
-      </c>
-      <c r="R57" t="s">
-        <v>408</v>
-      </c>
-      <c r="S57" t="s">
-        <v>406</v>
       </c>
       <c r="T57" t="s">
         <v>38</v>
@@ -6102,7 +6105,7 @@
         <v>39</v>
       </c>
       <c r="V57" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W57" t="s">
         <v>24</v>
@@ -6125,7 +6128,7 @@
         <v>24</v>
       </c>
       <c r="E58" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F58" t="s">
         <v>53</v>
@@ -6137,10 +6140,10 @@
         <v>43</v>
       </c>
       <c r="I58" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J58" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K58" t="s">
         <v>56</v>
@@ -6158,17 +6161,17 @@
         <v>73</v>
       </c>
       <c r="P58" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q58" t="s">
         <v>24</v>
       </c>
       <c r="R58" t="s">
+        <v>414</v>
+      </c>
+      <c r="S58" t="s">
         <v>413</v>
       </c>
-      <c r="S58" t="s">
-        <v>412</v>
-      </c>
       <c r="T58" t="s">
         <v>39</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>39</v>
       </c>
       <c r="V58" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W58" t="s">
         <v>24</v>
@@ -6196,10 +6199,10 @@
         <v>108</v>
       </c>
       <c r="D59" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E59" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F59" t="s">
         <v>53</v>
@@ -6214,7 +6217,7 @@
         <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="K59" t="s">
         <v>56</v>
@@ -6223,7 +6226,7 @@
         <v>33</v>
       </c>
       <c r="M59" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N59" t="s">
         <v>113</v>
@@ -6235,13 +6238,13 @@
         <v>149</v>
       </c>
       <c r="Q59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="R59" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="S59" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="T59" t="s">
         <v>39</v>
@@ -6250,7 +6253,7 @@
         <v>39</v>
       </c>
       <c r="V59" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W59" t="s">
         <v>24</v>
@@ -6264,16 +6267,16 @@
         <v>4092336</v>
       </c>
       <c r="B60" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C60" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -6288,7 +6291,7 @@
         <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="K60" t="s">
         <v>56</v>
@@ -6297,7 +6300,7 @@
         <v>124</v>
       </c>
       <c r="M60" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N60" t="s">
         <v>113</v>
@@ -6309,13 +6312,13 @@
         <v>36</v>
       </c>
       <c r="Q60" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R60" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="S60" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="T60" t="s">
         <v>39</v>
@@ -6324,7 +6327,7 @@
         <v>39</v>
       </c>
       <c r="V60" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="W60" t="s">
         <v>24</v>
@@ -6344,10 +6347,10 @@
         <v>108</v>
       </c>
       <c r="D61" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F61" t="s">
         <v>53</v>
@@ -6359,10 +6362,10 @@
         <v>43</v>
       </c>
       <c r="I61" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K61" t="s">
         <v>56</v>
@@ -6371,7 +6374,7 @@
         <v>71</v>
       </c>
       <c r="M61" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" t="s">
         <v>113</v>
@@ -6386,10 +6389,10 @@
         <v>24</v>
       </c>
       <c r="R61" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="S61" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T61" t="s">
         <v>39</v>
@@ -6398,7 +6401,7 @@
         <v>39</v>
       </c>
       <c r="V61" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="W61" t="s">
         <v>24</v>
@@ -6421,7 +6424,7 @@
         <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -6436,7 +6439,7 @@
         <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s">
         <v>56</v>
@@ -6454,16 +6457,16 @@
         <v>73</v>
       </c>
       <c r="P62" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q62" t="s">
         <v>24</v>
       </c>
       <c r="R62" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="S62" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T62" t="s">
         <v>39</v>
@@ -6472,7 +6475,7 @@
         <v>39</v>
       </c>
       <c r="V62" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="W62" t="s">
         <v>24</v>
@@ -6495,7 +6498,7 @@
         <v>41</v>
       </c>
       <c r="E63" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F63" t="s">
         <v>53</v>
@@ -6510,7 +6513,7 @@
         <v>24</v>
       </c>
       <c r="J63" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K63" t="s">
         <v>56</v>
@@ -6519,7 +6522,7 @@
         <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N63" t="s">
         <v>113</v>
@@ -6534,10 +6537,10 @@
         <v>24</v>
       </c>
       <c r="R63" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="S63" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T63" t="s">
         <v>39</v>
@@ -6546,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="V63" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="W63" t="s">
         <v>24</v>
@@ -6569,7 +6572,7 @@
         <v>41</v>
       </c>
       <c r="E64" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F64" t="s">
         <v>53</v>
@@ -6584,7 +6587,7 @@
         <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K64" t="s">
         <v>56</v>
@@ -6593,7 +6596,7 @@
         <v>71</v>
       </c>
       <c r="M64" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N64" t="s">
         <v>113</v>
@@ -6608,10 +6611,10 @@
         <v>119</v>
       </c>
       <c r="R64" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="S64" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="T64" t="s">
         <v>39</v>
@@ -6620,7 +6623,7 @@
         <v>39</v>
       </c>
       <c r="V64" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="W64" t="s">
         <v>24</v>
@@ -6637,28 +6640,28 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F65" t="s">
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="H65" t="s">
         <v>43</v>
       </c>
       <c r="I65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="J65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="K65" t="s">
         <v>32</v>
@@ -6667,7 +6670,7 @@
         <v>255</v>
       </c>
       <c r="M65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N65" t="s">
         <v>24</v>
@@ -6685,7 +6688,7 @@
         <v>24</v>
       </c>
       <c r="S65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="T65" t="s">
         <v>39</v>
@@ -6717,7 +6720,7 @@
         <v>41</v>
       </c>
       <c r="E66" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F66" t="s">
         <v>53</v>
@@ -6732,7 +6735,7 @@
         <v>24</v>
       </c>
       <c r="J66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K66" t="s">
         <v>56</v>
@@ -6741,7 +6744,7 @@
         <v>230</v>
       </c>
       <c r="M66" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N66" t="s">
         <v>113</v>
@@ -6756,10 +6759,10 @@
         <v>24</v>
       </c>
       <c r="R66" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="S66" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="T66" t="s">
         <v>39</v>
@@ -6768,7 +6771,7 @@
         <v>39</v>
       </c>
       <c r="V66" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W66" t="s">
         <v>24</v>
@@ -6782,16 +6785,16 @@
         <v>3758484</v>
       </c>
       <c r="B67" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C67" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
         <v>318</v>
       </c>
       <c r="E67" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F67" t="s">
         <v>5</v>
@@ -6803,19 +6806,19 @@
         <v>43</v>
       </c>
       <c r="I67" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="J67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K67" t="s">
         <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M67" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="N67" t="s">
         <v>24</v>
@@ -6833,7 +6836,7 @@
         <v>24</v>
       </c>
       <c r="S67" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="T67" t="s">
         <v>39</v>
@@ -6865,7 +6868,7 @@
         <v>41</v>
       </c>
       <c r="E68" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F68" t="s">
         <v>5</v>
@@ -6877,10 +6880,10 @@
         <v>43</v>
       </c>
       <c r="I68" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="J68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K68" t="s">
         <v>32</v>
@@ -6889,7 +6892,7 @@
         <v>33</v>
       </c>
       <c r="M68" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N68" t="s">
         <v>24</v>
@@ -6907,7 +6910,7 @@
         <v>24</v>
       </c>
       <c r="S68" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="T68" t="s">
         <v>39</v>
@@ -6930,43 +6933,43 @@
         <v>3678073</v>
       </c>
       <c r="B69" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C69" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E69" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F69" t="s">
         <v>5</v>
       </c>
       <c r="G69" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H69" t="s">
         <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="J69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K69" t="s">
         <v>70</v>
       </c>
       <c r="L69" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M69" t="s">
         <v>39</v>
       </c>
       <c r="N69" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O69" t="s">
         <v>73</v>
@@ -6978,10 +6981,10 @@
         <v>24</v>
       </c>
       <c r="R69" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="S69" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="T69" t="s">
         <v>39</v>
@@ -6990,7 +6993,7 @@
         <v>39</v>
       </c>
       <c r="V69" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="W69" t="s">
         <v>24</v>
@@ -7004,16 +7007,16 @@
         <v>3476547</v>
       </c>
       <c r="B70" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C70" t="s">
         <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E70" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F70" t="s">
         <v>5</v>
@@ -7025,10 +7028,10 @@
         <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J70" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="K70" t="s">
         <v>70</v>
@@ -7037,25 +7040,25 @@
         <v>66</v>
       </c>
       <c r="M70" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="N70" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O70" t="s">
         <v>73</v>
       </c>
       <c r="P70" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q70" t="s">
         <v>24</v>
       </c>
       <c r="R70" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="S70" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="T70" t="s">
         <v>39</v>
@@ -7064,7 +7067,7 @@
         <v>39</v>
       </c>
       <c r="V70" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="W70" t="s">
         <v>24</v>
@@ -7078,7 +7081,7 @@
         <v>3569525</v>
       </c>
       <c r="B71" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C71" t="s">
         <v>217</v>
@@ -7087,7 +7090,7 @@
         <v>218</v>
       </c>
       <c r="E71" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F71" t="s">
         <v>5</v>
@@ -7099,10 +7102,10 @@
         <v>43</v>
       </c>
       <c r="I71" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="J71" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="K71" t="s">
         <v>70</v>
@@ -7111,10 +7114,10 @@
         <v>255</v>
       </c>
       <c r="M71" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N71" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O71" t="s">
         <v>73</v>
@@ -7126,10 +7129,10 @@
         <v>24</v>
       </c>
       <c r="R71" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="S71" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="T71" t="s">
         <v>38</v>
@@ -7138,7 +7141,7 @@
         <v>39</v>
       </c>
       <c r="V71" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="W71" t="s">
         <v>24</v>
@@ -7158,10 +7161,10 @@
         <v>250</v>
       </c>
       <c r="D72" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F72" t="s">
         <v>5</v>
@@ -7176,7 +7179,7 @@
         <v>24</v>
       </c>
       <c r="J72" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="K72" t="s">
         <v>70</v>
@@ -7188,7 +7191,7 @@
         <v>39</v>
       </c>
       <c r="N72" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O72" t="s">
         <v>39</v>
@@ -7200,10 +7203,10 @@
         <v>24</v>
       </c>
       <c r="R72" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="S72" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="T72" t="s">
         <v>39</v>
@@ -7212,7 +7215,7 @@
         <v>39</v>
       </c>
       <c r="V72" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="W72" t="s">
         <v>24</v>
